--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -4263,7 +4263,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -5451,7 +5451,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -7233,7 +7233,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -7530,7 +7530,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -7827,7 +7827,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -9015,7 +9015,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -11094,7 +11094,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -6639,7 +6639,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -6936,7 +6936,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -8718,7 +8718,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -4263,7 +4263,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -5451,7 +5451,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -6639,7 +6639,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -6936,7 +6936,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -7233,7 +7233,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -7530,7 +7530,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -7827,7 +7827,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -8718,7 +8718,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -9015,7 +9015,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -10203,7 +10203,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -4263,7 +4263,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -5451,7 +5451,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -7233,7 +7233,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -7530,7 +7530,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -7827,7 +7827,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -8718,7 +8718,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -9015,7 +9015,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -10203,7 +10203,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -6639,7 +6639,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -6936,7 +6936,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -2778,7 +2778,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -8124,7 +8124,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -10797,7 +10797,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -4263,7 +4263,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -5451,7 +5451,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -7233,7 +7233,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -7827,7 +7827,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -10203,7 +10203,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -6936,7 +6936,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -7530,7 +7530,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -8718,7 +8718,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -11094,7 +11094,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -4263,7 +4263,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -6639,7 +6639,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -6936,7 +6936,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -7233,7 +7233,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -7530,7 +7530,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -8718,7 +8718,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -9015,7 +9015,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -11094,7 +11094,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -2778,7 +2778,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -4263,7 +4263,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -6639,7 +6639,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -6936,7 +6936,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -7233,7 +7233,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -7530,7 +7530,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -8124,7 +8124,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -8718,7 +8718,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -9015,7 +9015,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -10203,7 +10203,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -10797,7 +10797,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -4263,7 +4263,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -5451,7 +5451,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -6639,7 +6639,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -6936,7 +6936,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -7233,7 +7233,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -7530,7 +7530,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -9015,7 +9015,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -4263,7 +4263,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -6936,7 +6936,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -7233,7 +7233,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -7530,7 +7530,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -8718,7 +8718,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -9015,7 +9015,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -10203,7 +10203,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -11094,7 +11094,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -6639,7 +6639,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -4263,7 +4263,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -5451,7 +5451,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -7233,7 +7233,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -7530,7 +7530,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -7827,7 +7827,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -8718,7 +8718,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -9015,7 +9015,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -11094,7 +11094,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -6639,7 +6639,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -8124,7 +8124,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -2778,7 +2778,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -8124,7 +8124,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -10797,7 +10797,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -4263,7 +4263,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -5451,7 +5451,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -6639,7 +6639,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -6936,7 +6936,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -7233,7 +7233,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -7530,7 +7530,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -7827,7 +7827,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -8718,7 +8718,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -9015,7 +9015,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -10203,7 +10203,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -11094,7 +11094,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -4263,7 +4263,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -5451,7 +5451,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -7233,7 +7233,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -7827,7 +7827,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -10203,7 +10203,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -6936,7 +6936,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -7530,7 +7530,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -8718,7 +8718,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -9015,7 +9015,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -11094,7 +11094,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -4263,7 +4263,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -5451,7 +5451,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -7233,7 +7233,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -7530,7 +7530,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -7827,7 +7827,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -8718,7 +8718,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -9015,7 +9015,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -10203,7 +10203,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -11094,7 +11094,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -6639,7 +6639,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -6936,7 +6936,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -2778,7 +2778,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -8124,7 +8124,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -10797,7 +10797,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -5451,7 +5451,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -7530,7 +7530,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -10203,7 +10203,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -8124,7 +8124,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -2778,7 +2778,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -8124,7 +8124,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -10797,7 +10797,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -10203,7 +10203,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -5451,7 +5451,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -6936,7 +6936,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -7530,7 +7530,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -9015,7 +9015,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -6639,7 +6639,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -7827,7 +7827,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -10203,7 +10203,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -4263,7 +4263,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -5451,7 +5451,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -6936,7 +6936,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -7233,7 +7233,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -7827,7 +7827,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -8124,7 +8124,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -8718,7 +8718,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -9015,7 +9015,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -10203,7 +10203,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -10797,7 +10797,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -11094,7 +11094,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -6639,7 +6639,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -4263,7 +4263,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -5451,7 +5451,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -7233,7 +7233,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -7530,7 +7530,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -8718,7 +8718,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -9015,7 +9015,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -6639,7 +6639,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -6936,7 +6936,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -7827,7 +7827,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -10203,7 +10203,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -11094,7 +11094,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -8124,7 +8124,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -8124,7 +8124,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -10797,7 +10797,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -4263,7 +4263,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -5451,7 +5451,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -7233,7 +7233,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -9015,7 +9015,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -4560,7 +4560,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -6639,7 +6639,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -6936,7 +6936,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -7827,7 +7827,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -8718,7 +8718,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -10203,7 +10203,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -11094,7 +11094,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -4263,7 +4263,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -5451,7 +5451,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -7233,7 +7233,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -7530,7 +7530,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -8718,7 +8718,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -9015,7 +9015,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -6639,7 +6639,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -6936,7 +6936,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -7827,7 +7827,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -10203,7 +10203,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -11094,7 +11094,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -4263,7 +4263,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -5451,7 +5451,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -7233,7 +7233,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -7530,7 +7530,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -9015,7 +9015,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>

--- a/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
+++ b/daily_aqi_data/SL_Daily_AQI_2025-02-09.xlsx
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -5748,7 +5748,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -6639,7 +6639,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -6936,7 +6936,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -7827,7 +7827,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -8718,7 +8718,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -9609,7 +9609,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -10203,7 +10203,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -11094,7 +11094,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
